--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter09/SeparateTables_09_01.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter09/SeparateTables_09_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter09\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB857571-F02A-40A2-91C5-872A34F8DD65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B727FD4B-D47F-4A6C-B29D-2E5BA7249F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595" xr2:uid="{6352FB18-BB25-48BC-A765-225859F9B47A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6352FB18-BB25-48BC-A765-225859F9B47A}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="3" r:id="rId1"/>
@@ -19,12 +19,28 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Orders!#REF!</definedName>
+    <definedName name="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxCustomers" hidden="1">Customers[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxOrders5" hidden="1">Orders5[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxProducts" hidden="1">Products[]</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">Products!$C$1</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
+      <x15:dataModel>
+        <x15:modelTables>
+          <x15:modelTable id="Orders5" name="Orders5" connection="WorksheetConnection_SeparateTables_09_01.xlsx!Orders5"/>
+          <x15:modelTable id="Customers" name="Customers" connection="WorksheetConnection_SeparateTables_09_01.xlsx!Customers"/>
+          <x15:modelTable id="Products" name="Products" connection="WorksheetConnection_SeparateTables_09_01.xlsx!Products"/>
+        </x15:modelTables>
+        <x15:modelRelationships>
+          <x15:modelRelationship fromTable="Orders5" fromColumn="CustNum" toTable="Customers" toColumn="CustNum"/>
+          <x15:modelRelationship fromTable="Orders5" fromColumn="SKU" toTable="Products" toColumn="SKU"/>
+        </x15:modelRelationships>
+      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,6 +50,47 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{81954474-CCAA-41DA-9376-4D85C1CB4A3B}" keepAlive="1" name="ThisWorkbookDataModel" description="Modelo de datos" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
+    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="" model="1"/>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="2" xr16:uid="{0883D152-446D-4560-8598-13A7BB1E953E}" name="WorksheetConnection_SeparateTables_09_01.xlsx!Customers" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Customers">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxCustomers"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{E7FF41F5-27C0-4CEE-BA6A-37BB7D27ED85}" name="WorksheetConnection_SeparateTables_09_01.xlsx!Orders5" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Orders5">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxOrders5"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="4" xr16:uid="{3D4659E0-E9C7-474A-B235-7B1731CF42E5}" name="WorksheetConnection_SeparateTables_09_01.xlsx!Products" type="102" refreshedVersion="6" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Products">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_SeparateTables_09_01.xlsxProducts"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+</connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2464,7 +2521,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2939,7 +2996,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3237,11 +3294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC900F22-216F-45C2-B428-E60B2F2BAD77}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -6202,7 +6259,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.7109375" bestFit="1" customWidth="1"/>
@@ -6962,11 +7019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B9B161-3591-404A-9AAB-A1E5634C2847}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
